--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st03.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="740">
   <si>
     <t>zh_CN</t>
   </si>
@@ -2372,7 +2372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="압생트"]  …….
+    <t xml:space="preserve">[name="압생트"]  ……
 </t>
   </si>
   <si>
@@ -2504,7 +2504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="압생트"]  에..…. 아, 네. 감…... 감사합니다.
+    <t xml:space="preserve">[name="압생트"]  에…… 아, 네. 감…… 감사합니다.
 </t>
   </si>
   <si>
@@ -2600,10 +2600,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="압생트"]  ……
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="압생트"]  고마워, 퓨어스트림 씨.
 </t>
   </si>
@@ -2644,7 +2640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="엘리시움"]  그때 아미야는 아직까지 꼬맹이였어. 지금보다 키가 좀 더 작았는데, 어린 새싹 같았지.
+    <t xml:space="preserve">[name="엘리시움"]  그때 아미야는 아직 꼬맹이였어. 지금보다 키가 좀 더 작았는데, 어린 새싹 같았지.
 </t>
   </si>
   <si>
@@ -2840,7 +2836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="엘리시움"]  그리고, 그 사람은 내 서포트가 없으면 안 돼. 팀장만 아니었으면, 전달자 일이나 하면서 여기저기 돌아다니는 게 내 꿈이지.
+    <t xml:space="preserve">[name="엘리시움"]  그리고, 그 사람은 내 서포트가 없으면 안 돼. 팀장만 아니었으면, 전달자 일이나 하면서 여기저기 돌아다니는 게 내 꿈인데 말이야.
 </t>
   </si>
   <si>
@@ -4664,7 +4660,7 @@
         <v>406</v>
       </c>
       <c r="D95" t="s">
-        <v>647</v>
+        <v>590</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4678,7 +4674,7 @@
         <v>463</v>
       </c>
       <c r="D96" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4692,7 +4688,7 @@
         <v>464</v>
       </c>
       <c r="D97" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4706,7 +4702,7 @@
         <v>465</v>
       </c>
       <c r="D98" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4720,7 +4716,7 @@
         <v>466</v>
       </c>
       <c r="D99" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4734,7 +4730,7 @@
         <v>467</v>
       </c>
       <c r="D100" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4748,7 +4744,7 @@
         <v>468</v>
       </c>
       <c r="D101" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4762,7 +4758,7 @@
         <v>469</v>
       </c>
       <c r="D102" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4776,7 +4772,7 @@
         <v>470</v>
       </c>
       <c r="D103" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4790,7 +4786,7 @@
         <v>471</v>
       </c>
       <c r="D104" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4804,7 +4800,7 @@
         <v>472</v>
       </c>
       <c r="D105" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4818,7 +4814,7 @@
         <v>473</v>
       </c>
       <c r="D106" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4832,7 +4828,7 @@
         <v>474</v>
       </c>
       <c r="D107" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4846,7 +4842,7 @@
         <v>475</v>
       </c>
       <c r="D108" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4860,7 +4856,7 @@
         <v>476</v>
       </c>
       <c r="D109" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4874,7 +4870,7 @@
         <v>477</v>
       </c>
       <c r="D110" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4888,7 +4884,7 @@
         <v>478</v>
       </c>
       <c r="D111" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4902,7 +4898,7 @@
         <v>479</v>
       </c>
       <c r="D112" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4916,7 +4912,7 @@
         <v>480</v>
       </c>
       <c r="D113" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4930,7 +4926,7 @@
         <v>481</v>
       </c>
       <c r="D114" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4944,7 +4940,7 @@
         <v>482</v>
       </c>
       <c r="D115" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4958,7 +4954,7 @@
         <v>483</v>
       </c>
       <c r="D116" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4972,7 +4968,7 @@
         <v>484</v>
       </c>
       <c r="D117" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4986,7 +4982,7 @@
         <v>485</v>
       </c>
       <c r="D118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5000,7 +4996,7 @@
         <v>486</v>
       </c>
       <c r="D119" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5014,7 +5010,7 @@
         <v>487</v>
       </c>
       <c r="D120" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5028,7 +5024,7 @@
         <v>488</v>
       </c>
       <c r="D121" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5042,7 +5038,7 @@
         <v>489</v>
       </c>
       <c r="D122" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5056,7 +5052,7 @@
         <v>490</v>
       </c>
       <c r="D123" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5070,7 +5066,7 @@
         <v>491</v>
       </c>
       <c r="D124" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5084,7 +5080,7 @@
         <v>492</v>
       </c>
       <c r="D125" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5098,7 +5094,7 @@
         <v>493</v>
       </c>
       <c r="D126" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5112,7 +5108,7 @@
         <v>494</v>
       </c>
       <c r="D127" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5126,7 +5122,7 @@
         <v>495</v>
       </c>
       <c r="D128" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5140,7 +5136,7 @@
         <v>496</v>
       </c>
       <c r="D129" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5154,7 +5150,7 @@
         <v>497</v>
       </c>
       <c r="D130" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5168,7 +5164,7 @@
         <v>498</v>
       </c>
       <c r="D131" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5182,7 +5178,7 @@
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5196,7 +5192,7 @@
         <v>500</v>
       </c>
       <c r="D133" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5210,7 +5206,7 @@
         <v>501</v>
       </c>
       <c r="D134" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5224,7 +5220,7 @@
         <v>502</v>
       </c>
       <c r="D135" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5238,7 +5234,7 @@
         <v>503</v>
       </c>
       <c r="D136" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5252,7 +5248,7 @@
         <v>504</v>
       </c>
       <c r="D137" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5266,7 +5262,7 @@
         <v>505</v>
       </c>
       <c r="D138" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5280,7 +5276,7 @@
         <v>506</v>
       </c>
       <c r="D139" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5294,7 +5290,7 @@
         <v>507</v>
       </c>
       <c r="D140" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5308,7 +5304,7 @@
         <v>508</v>
       </c>
       <c r="D141" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5322,7 +5318,7 @@
         <v>509</v>
       </c>
       <c r="D142" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5336,7 +5332,7 @@
         <v>510</v>
       </c>
       <c r="D143" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5350,7 +5346,7 @@
         <v>511</v>
       </c>
       <c r="D144" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5364,7 +5360,7 @@
         <v>512</v>
       </c>
       <c r="D145" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5378,7 +5374,7 @@
         <v>513</v>
       </c>
       <c r="D146" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5392,7 +5388,7 @@
         <v>514</v>
       </c>
       <c r="D147" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5406,7 +5402,7 @@
         <v>515</v>
       </c>
       <c r="D148" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5420,7 +5416,7 @@
         <v>516</v>
       </c>
       <c r="D149" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5434,7 +5430,7 @@
         <v>517</v>
       </c>
       <c r="D150" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5448,7 +5444,7 @@
         <v>518</v>
       </c>
       <c r="D151" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5462,7 +5458,7 @@
         <v>519</v>
       </c>
       <c r="D152" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5476,7 +5472,7 @@
         <v>520</v>
       </c>
       <c r="D153" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5490,7 +5486,7 @@
         <v>521</v>
       </c>
       <c r="D154" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5504,7 +5500,7 @@
         <v>522</v>
       </c>
       <c r="D155" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5518,7 +5514,7 @@
         <v>523</v>
       </c>
       <c r="D156" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5532,7 +5528,7 @@
         <v>524</v>
       </c>
       <c r="D157" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5546,7 +5542,7 @@
         <v>525</v>
       </c>
       <c r="D158" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5560,7 +5556,7 @@
         <v>526</v>
       </c>
       <c r="D159" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5574,7 +5570,7 @@
         <v>527</v>
       </c>
       <c r="D160" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5588,7 +5584,7 @@
         <v>528</v>
       </c>
       <c r="D161" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5602,7 +5598,7 @@
         <v>529</v>
       </c>
       <c r="D162" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5616,7 +5612,7 @@
         <v>530</v>
       </c>
       <c r="D163" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5630,7 +5626,7 @@
         <v>531</v>
       </c>
       <c r="D164" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5644,7 +5640,7 @@
         <v>532</v>
       </c>
       <c r="D165" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5658,7 +5654,7 @@
         <v>533</v>
       </c>
       <c r="D166" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5672,7 +5668,7 @@
         <v>534</v>
       </c>
       <c r="D167" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5686,7 +5682,7 @@
         <v>535</v>
       </c>
       <c r="D168" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5700,7 +5696,7 @@
         <v>536</v>
       </c>
       <c r="D169" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5714,7 +5710,7 @@
         <v>537</v>
       </c>
       <c r="D170" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5728,7 +5724,7 @@
         <v>538</v>
       </c>
       <c r="D171" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5742,7 +5738,7 @@
         <v>539</v>
       </c>
       <c r="D172" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5756,7 +5752,7 @@
         <v>540</v>
       </c>
       <c r="D173" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5770,7 +5766,7 @@
         <v>541</v>
       </c>
       <c r="D174" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5784,7 +5780,7 @@
         <v>542</v>
       </c>
       <c r="D175" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5798,7 +5794,7 @@
         <v>543</v>
       </c>
       <c r="D176" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5812,7 +5808,7 @@
         <v>544</v>
       </c>
       <c r="D177" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5826,7 +5822,7 @@
         <v>545</v>
       </c>
       <c r="D178" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5840,7 +5836,7 @@
         <v>546</v>
       </c>
       <c r="D179" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5854,7 +5850,7 @@
         <v>547</v>
       </c>
       <c r="D180" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5868,7 +5864,7 @@
         <v>548</v>
       </c>
       <c r="D181" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5882,7 +5878,7 @@
         <v>549</v>
       </c>
       <c r="D182" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5896,7 +5892,7 @@
         <v>550</v>
       </c>
       <c r="D183" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5910,7 +5906,7 @@
         <v>551</v>
       </c>
       <c r="D184" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5924,7 +5920,7 @@
         <v>552</v>
       </c>
       <c r="D185" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5938,7 +5934,7 @@
         <v>553</v>
       </c>
       <c r="D186" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5952,7 +5948,7 @@
         <v>554</v>
       </c>
       <c r="D187" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5966,7 +5962,7 @@
         <v>555</v>
       </c>
       <c r="D188" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st03.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st03.xlsx
@@ -2784,7 +2784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="퓨어스트림"]  그러고 보니, 로도스 아일랜드도 이런 쪽으론 신경쓰지 않지 않아? 내가 처음 왔을 때도 모두 나를 환영해주고, 처음 외부 임무를 나갈 때도 엘리시움 씨랑 함께였는걸!
+    <t xml:space="preserve">[name="퓨어스트림"]  그러고 보니, 로도스 아일랜드도 이런 쪽으론 신경쓰지 않지 않아? 내가 처음 왔을 때도 모두 나를 환영해주고, 처음 외근 임무를 나갈 때도 엘리시움 씨랑 함께였는걸!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st03.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st03.xlsx
@@ -1512,7 +1512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’ve experienced it. I’ve experienced it all.
+    <t xml:space="preserve">I've experienced it. I've experienced it all.
 </t>
   </si>
   <si>
@@ -1520,7 +1520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10:10 AM \ Clear
+    <t xml:space="preserve">10:10 A.M. \ Clear
 </t>
   </si>
   <si>
@@ -1528,15 +1528,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  Okay, it’s up to you to let everybody else know, Mr. Elysium!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  I’ve already talked to the Logistics Department about the ingredients we need, and I’ll figure out the menu with FEater.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  We should be able to make most homemade fare ourselves, but we’ll need help with the more complicated dishes...
+    <t xml:space="preserve">[name="Purestream"]  Okay, it's up to you to let everybody else know, Mr. Elysium!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  I've already talked to the Logistics Department about the ingredients we need, and I'll figure out the menu with FEater.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  We should be able to make most homemade fare ourselves, but we'll need help with the more complicated dishes...
 </t>
   </si>
   <si>
@@ -1544,23 +1544,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Well, you certainly have everything in order. I didn’t expect Miss Leizi to offer her help.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  We need to contact the Yen and Lungmen operators on this list who are currently out in the field, correct? Just leave it to me. I’ll get every last one of them! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  I’m so glad you’re helping us, Mr. Elysium.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  I didn’t expect there to be so many people from the old country here at Rhodes Island. Hehe, I really love that feeling of everyone coming together. It makes everything so lively, having so many people in one place. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  I wonder if the people out there right now will make it back on time, though... I really hope they do... Hm, I guess it’s probably going to be difficult, but there’s always a chance!
+    <t xml:space="preserve">[name="Elysium"]  Well, you certainly have everything in order. I didn't expect Miss Leizi to offer her help.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  We need to contact the Yen and Lungmen operators on this list who are currently out in the field, correct? Just leave it to me. I'll get every last one of them! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  I'm so glad you're helping us, Mr. Elysium.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  I didn't expect there to be so many people from the old country here at Rhodes Island. Hehe, I really love that feeling of everyone coming together. It makes everything so lively, having so many people in one place. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  I wonder if the people out there right now will make it back on time, though... I really hope they do... Hm, I guess it's probably going to be difficult, but there's always a chance!
 </t>
   </si>
   <si>
@@ -1568,27 +1568,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Really? That’s wonderful. I’ll bring as many as I can. This is an opportunity not to be missed. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  The more the merrier, right? That’s what we’re good at! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  Ahaha... of course, we welcome all of you, but please don’t go overboard, either. Dr. Kal'tsit would probably yell at us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Don’t worry. I know our limits.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  If you’re afraid of getting yelled at, you’d better not invite this guy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  If courting disaster a talent, then he is the most talented person I’ve ever seen.
+    <t xml:space="preserve">[name="Elysium"]  Really? That's wonderful. I'll bring as many as I can. This is an opportunity not to be missed. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  The more the merrier, right? That's what we're good at! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  Ahaha... of course, we welcome all of you, but please don't go overboard, either. Dr. Kal'tsit would probably yell at us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Don't worry. I know our limits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  If you're afraid of getting yelled at, you'd better not invite this guy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  If courting disaster a talent, then he is the most talented person I've ever seen.
 </t>
   </si>
   <si>
@@ -1600,11 +1600,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Oh, come now. We both know you aren’t much better than me when it comes to courting disaster.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Do remember who it was that wrecked the steel plates in the connect area last time! Why did I have to bear the brunt of Miss Closure’s tirade?
+    <t xml:space="preserve">[name="Elysium"]  Oh, come now. We both know you aren't much better than me when it comes to courting disaster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Do remember who it was that wrecked the steel plates in the connect area last time! Why did I have to bear the brunt of Miss Closure's tirade?
 </t>
   </si>
   <si>
@@ -1612,7 +1612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  Wasn’t it because you brought her little robot up to the deck and it shattered to pieces?
+    <t xml:space="preserve">[name="Thorns"]  Wasn't it because you brought her little robot up to the deck and it shattered to pieces?
 </t>
   </si>
   <si>
@@ -1620,11 +1620,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Th-That wasn’t my fault! Andreana was shooting her inkballs there. She caught me off guard, and that’s how the thing slipped out of my hand! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  Eh? Wait a minute, why would Miss Andreana do something like that on the deck? She doesn’t seem like the kind of person who would do that... 
+    <t xml:space="preserve">[name="Elysium"]  Th-That wasn't my fault! Andreana was shooting her inkballs there. She caught me off guard, and that's how the thing slipped out of my hand! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  Eh? Wait a minute, why would Miss Andreana do something like that on the deck? She doesn't seem like the kind of person who would do that... 
 </t>
   </si>
   <si>
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  What’s wrong... Huh? Who’s there?
+    <t xml:space="preserve">[name="Elysium"]  What's wrong... Huh? Who's there?
 </t>
   </si>
   <si>
@@ -1660,31 +1660,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  Oh, are you afraid of these two? It’s okay, don’t be shy! They aren’t scary. Besides, I’m here! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  Um, Purestream, don’t pull on my sleeve... I’m coming.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  ...Sorry, am I interrupting? There’s something I wanted to talk to Mr. Thorns about. If it isn’t a good time right now, I can come back later... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Not at all. We’re all coworkers. There is no need to be so formal. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  She’s here for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  I certainly didn’t expect a girl to willingly talk to you, with that poker face of yours. This really puts my mind at ease.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  ...It’s none of your business.
+    <t xml:space="preserve">[name="Purestream"]  Oh, are you afraid of these two? It's okay, don't be shy! They aren't scary. Besides, I'm here! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  Um, Purestream, don't pull on my sleeve... I'm coming.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  ...Sorry, am I interrupting? There's something I wanted to talk to Mr. Thorns about. If it isn't a good time right now, I can come back later... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Not at all. We're all coworkers. There is no need to be so formal. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  She's here for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  I certainly didn't expect a girl to willingly talk to you, with that poker face of yours. This really puts my mind at ease.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  ...It's none of your business.
 </t>
   </si>
   <si>
@@ -1692,11 +1692,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Absinthe"]  Right. I’m sorry to bother you right now, Mr. Thorns. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  There’s something I wanted to ask you about maintaining my weapon...
+    <t xml:space="preserve">[name="Absinthe"]  Right. I'm sorry to bother you right now, Mr. Thorns. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  There's something I wanted to ask you about maintaining my weapon...
 </t>
   </si>
   <si>
@@ -1704,7 +1704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Now that you mention it, it’s about time I get my communicator fixed.
+    <t xml:space="preserve">[name="Elysium"]  Now that you mention it, it's about time I get my communicator fixed.
 </t>
   </si>
   <si>
@@ -1712,7 +1712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  If you bring her something garlic flavored, I can guarantee you she won’t.
+    <t xml:space="preserve">[name="Thorns"]  If you bring her something garlic flavored, I can guarantee you she won't.
 </t>
   </si>
   <si>
@@ -1720,15 +1720,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Absinthe"]  Thank you! It’s right here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  My weapon’s Arts Unit is a little different compared to what other casters use. It’s a little more complicated to maintain the parts inside... Oh, please be careful. The trigger is kind of loose. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  It’s old.
+    <t xml:space="preserve">[name="Absinthe"]  Thank you! It's right here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  My weapon's Arts Unit is a little different compared to what other casters use. It's a little more complicated to maintain the parts inside... Oh, please be careful. The trigger is kind of loose. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  It's old.
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Absinthe"]  And, um... I’m very sorry to ask you this out of the blue, but if it’s okay with you, could you—
+    <t xml:space="preserve">[name="Absinthe"]  And, um... I'm very sorry to ask you this out of the blue, but if it's okay with you, could you—
 </t>
   </si>
   <si>
@@ -1764,7 +1764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  I’ve actually just come up with a new idea. If you can trust me with your weapon, I can give it a try.
+    <t xml:space="preserve">[name="Thorns"]  I've actually just come up with a new idea. If you can trust me with your weapon, I can give it a try.
 </t>
   </si>
   <si>
@@ -1772,15 +1772,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  Isn’t that great, Sinthe?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  You’d better not test anything weird on her weapon. I’m not doubting the effectiveness of your reagents, but every time you make something new, they always turn out pretty weird.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  It’ll be fine this time.
+    <t xml:space="preserve">[name="Purestream"]  Isn't that great, Sinthe?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  You'd better not test anything weird on her weapon. I'm not doubting the effectiveness of your reagents, but every time you make something new, they always turn out pretty weird.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  It'll be fine this time.
 </t>
   </si>
   <si>
@@ -1788,7 +1788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  I’ve already tested it on your weapon.
+    <t xml:space="preserve">[name="Thorns"]  I've already tested it on your weapon.
 </t>
   </si>
   <si>
@@ -1796,7 +1796,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  I’m just kidding.
+    <t xml:space="preserve">[name="Thorns"]  I'm just kidding.
 </t>
   </si>
   <si>
@@ -1804,39 +1804,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  Yeah, they’re both from Iberia. Iberian operators are pretty much all really good friends.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  It’s a wonderful feeling to meet people from back home when you are so far away.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  I was very happy when Miss FEater, the famous movie star, gave me her autograph! She’s a huge celebrity where I’m from, and all of my friends and neighbors love her!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  And now we’re so close that we go shopping together!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  Oh, right, and Miss Leizi too. She may look scary, but she’s actually a really nice person.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  Have you seen what she does to broken video monitors? She just whacks them like this. I thought that’d break them, but that’s how she fixes them! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  Isn’t that how you fix electronics? You just need to hit them when they aren’t working well. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  That’s true. Everyone back home does that. It works like a charm. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  Yep. If it doesn’t work, whack it a few more times. 
+    <t xml:space="preserve">[name="Purestream"]  Yeah, they're both from Iberia. Iberian operators are pretty much all really good friends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  It's a wonderful feeling to meet people from back home when you are so far away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  I was very happy when Miss FEater, the famous movie star, gave me her autograph! She's a huge celebrity where I'm from, and all of my friends and neighbors love her!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  And now we're so close that we go shopping together!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  Oh, right, and Miss Leizi too. She may look scary, but she's actually a really nice person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  Have you seen what she does to broken video monitors? She just whacks them like this. I thought that'd break them, but that's how she fixes them! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  Isn't that how you fix electronics? You just need to hit them when they aren't working well. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  That's true. Everyone back home does that. It works like a charm. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  Yep. If it doesn't work, whack it a few more times. 
 </t>
   </si>
   <si>
@@ -1848,19 +1848,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  Oh, cheer up. Don’t look like that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  I know, you’re thinking about Zima, Leto, and the others, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  I’ll come with you next time. I’m friends with Leto. You two will hit it off right away! Once you get to know each other, it’ll be much easier to talk to them. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  ...Yeah. I hope so too. I’ll have to talk to them sooner or later...  
+    <t xml:space="preserve">[name="Purestream"]  Oh, cheer up. Don't look like that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  I know, you're thinking about Zima, Leto, and the others, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  I'll come with you next time. I'm friends with Leto. You two will hit it off right away! Once you get to know each other, it'll be much easier to talk to them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  ...Yeah. I hope so too. I'll have to talk to them sooner or later...  
 </t>
   </si>
   <si>
@@ -1868,11 +1868,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  Oh... You don’t have to thank me. It makes me embarrassed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Ah, what a wonderful display of friendship. Dazzling, don’t you agree? I love seeing these situations play out before my eyes. 
+    <t xml:space="preserve">[name="Purestream"]  Oh... You don't have to thank me. It makes me embarrassed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Ah, what a wonderful display of friendship. Dazzling, don't you agree? I love seeing these situations play out before my eyes. 
 </t>
   </si>
   <si>
@@ -1888,7 +1888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Even I need time to ease into things. Besides, Rhodes Island used to be a very different place. We didn’t have that many people on board, and everyone was a lot more serious than they are now.
+    <t xml:space="preserve">[name="Elysium"]  Even I need time to ease into things. Besides, Rhodes Island used to be a very different place. We didn't have that many people on board, and everyone was a lot more serious than they are now.
 </t>
   </si>
   <si>
@@ -1900,7 +1900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Hm... Let’s see. It was about two years ago when I first got here.
+    <t xml:space="preserve">[name="Elysium"]  Hm... Let's see. It was about two years ago when I first got here.
 </t>
   </si>
   <si>
@@ -1908,7 +1908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Haha, I have to say. She still isn’t quite an adult, even though her expression is a lot different now.
+    <t xml:space="preserve">[name="Elysium"]  Haha, I have to say. She still isn't quite an adult, even though her expression is a lot different now.
 </t>
   </si>
   <si>
@@ -1928,11 +1928,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Well... that’s a tough question to answer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  To tell you the truth, I’m not entirely sure what happened myself. I think something happened to the Doctor before I got here, and not many people know about it. The captain wouldn’t tell me about it, either.
+    <t xml:space="preserve">[name="Elysium"]  Well... that's a tough question to answer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  To tell you the truth, I'm not entirely sure what happened myself. I think something happened to the Doctor before I got here, and not many people know about it. The captain wouldn't tell me about it, either.
 </t>
   </si>
   <si>
@@ -1940,15 +1940,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  In any case, I’d say the way things are now isn’t too bad. Amiya, Dr. Kal'tsit, and the Doctor all get along with each other, and we’re bringing in more and more operators. Things are going to get even busier here. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  From that point of view, I think I made the right decision when I decided to stay. I’ve had my fill of gloomy, boring places.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  I may not be a Messenger, but I still get the chance to travel to different places, see different sights, and have a place to call home. That’s more than enough for me.
+    <t xml:space="preserve">[name="Elysium"]  In any case, I'd say the way things are now isn't too bad. Amiya, Dr. Kal'tsit, and the Doctor all get along with each other, and we're bringing in more and more operators. Things are going to get even busier here. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  From that point of view, I think I made the right decision when I decided to stay. I've had my fill of gloomy, boring places.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  I may not be a Messenger, but I still get the chance to travel to different places, see different sights, and have a place to call home. That's more than enough for me.
 </t>
   </si>
   <si>
@@ -1968,7 +1968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Even if we wanted to go back... it’s not quite possible, is it?
+    <t xml:space="preserve">[name="Elysium"]  Even if we wanted to go back... it's not quite possible, is it?
 </t>
   </si>
   <si>
@@ -1976,7 +1976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  I haven’t heard much about that place. What is it like? If you can’t go back, don’t you miss home? 
+    <t xml:space="preserve">[name="Purestream"]  I haven't heard much about that place. What is it like? If you can't go back, don't you miss home? 
 </t>
   </si>
   <si>
@@ -1988,39 +1988,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  Oh, I’m sorry, I guess I shouldn’t have asked.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  No, it’s not really a big deal. It’s just, how should I say this? Yeah, there’s not really much worthy of mention there, now that I think about it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Oh, don’t look like that. It’s not as if I have any painful memories of the place, but... yeah, Iberia was pretty boring for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  Even though it’s your homeland...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Yeah, it’s boring. It’s depressing to no end. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  I couldn’t live there, and so I left. That’s all there is to it. Aside from that, I guess it wasn’t so bad. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  That’s what you think.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  To us Ægirians, Iberia isn’t a very friendly place.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Oh... I’ve heard a little about that, but I don’t know much about it. There weren’t a lot of Ægirians where I lived, after all.
+    <t xml:space="preserve">[name="Purestream"]  Oh, I'm sorry, I guess I shouldn't have asked.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  No, it's not really a big deal. It's just, how should I say this? Yeah, there's not really much worthy of mention there, now that I think about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Oh, don't look like that. It's not as if I have any painful memories of the place, but... yeah, Iberia was pretty boring for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  Even though it's your homeland...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Yeah, it's boring. It's depressing to no end. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  I couldn't live there, and so I left. That's all there is to it. Aside from that, I guess it wasn't so bad. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  That's what you think.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  To us Ægirians, Iberia isn't a very friendly place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Oh... I've heard a little about that, but I don't know much about it. There weren't a lot of Ægirians where I lived, after all.
 </t>
   </si>
   <si>
@@ -2040,23 +2040,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Absinthe"]  That sounds kinda scary. If I remember correctly, you’re an Ægirian too, aren’t you, Purestream? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  Yeah, but there are people of all races in Yen, so no one seemed to mind. I haven’t heard of Ægirians being barred from any official positions, either. Everyone’s equal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  Now that I think about it, Rhodes Island doesn’t care much about races, either. When I first got here, everyone really took good care of me. Just like Mr. Elysium! He helped me out on my first field mission!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  Me too. On my last mission, some enemies got the drop on me. It’s all thanks to Mr. Elysium that I’m still here... Thank you very much. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Oh, no need to thank me. I get reassigned to different teams pretty often. We’re all teammates, so we should help each other out.
+    <t xml:space="preserve">[name="Absinthe"]  That sounds kinda scary. If I remember correctly, you're an Ægirian too, aren't you, Purestream? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  Yeah, but there are people of all races in Yen, so no one seemed to mind. I haven't heard of Ægirians being barred from any official positions, either. Everyone's equal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  Now that I think about it, Rhodes Island doesn't care much about races, either. When I first got here, everyone really took good care of me. Just like Mr. Elysium! He helped me out on my first field mission!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  Me too. On my last mission, some enemies got the drop on me. It's all thanks to Mr. Elysium that I'm still here... Thank you very much. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Oh, no need to thank me. I get reassigned to different teams pretty often. We're all teammates, so we should help each other out.
 </t>
   </si>
   <si>
@@ -2064,7 +2064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Absinthe, you’re always so stubborn when it comes to these things. I have way too many people around me like that... 
+    <t xml:space="preserve">[name="Elysium"]  Absinthe, you're always so stubborn when it comes to these things. I have way too many people around me like that... 
 </t>
   </si>
   <si>
@@ -2072,11 +2072,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Yes, she’s one of those people, but have you ever noticed you’re very stubborn yourself?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  The captain doesn’t talk much, but she looks so cool... and I’m a little embarrassed to say this, but I’m actually a little scared of her.
+    <t xml:space="preserve">[name="Elysium"]  Yes, she's one of those people, but have you ever noticed you're very stubborn yourself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  The captain doesn't talk much, but she looks so cool... and I'm a little embarrassed to say this, but I'm actually a little scared of her.
 </t>
   </si>
   <si>
@@ -2084,11 +2084,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  But, you know, she just looks scary and doesn’t try to talk to others much. She’s actually very easy to talk to.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  The next time you see her, maybe you should try saying hi to her. She may not look it, but it’ll make her really happy. I guarantee it.
+    <t xml:space="preserve">[name="Elysium"]  But, you know, she just looks scary and doesn't try to talk to others much. She's actually very easy to talk to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  The next time you see her, maybe you should try saying hi to her. She may not look it, but it'll make her really happy. I guarantee it.
 </t>
   </si>
   <si>
@@ -2100,7 +2100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Besides, she can’t get by without my help. If it wasn’t for that, I would’ve been a Messenger, traveling all around the world right now.
+    <t xml:space="preserve">[name="Elysium"]  Besides, she can't get by without my help. If it wasn't for that, I would've been a Messenger, traveling all around the world right now.
 </t>
   </si>
   <si>
@@ -2108,27 +2108,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  I seem to remember she’s on a solo mission right now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Thorns"]  And you’re saying she can’t get by without your help?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  ...This mission’s different! Only she alone could handle such an infiltration mission. I’d just blow her cover. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  I don’t think she has ever teamed up with anyone before me, right? It was pretty terrible at first. She even used to beat me up just because she thought I was annoying. Don’t you think that’s cruel? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Her Arts are really something else. I took a single blow and it knocked me out of my senses so terribly that I didn’t even know how to get home. It took me a while until I remembered who I was!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  It affected your consciousness... and memories? I didn’t know Arts could be so dangerous. 
+    <t xml:space="preserve">[name="Thorns"]  I seem to remember she's on a solo mission right now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Thorns"]  And you're saying she can't get by without your help?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  ...This mission's different! Only she alone could handle such an infiltration mission. I'd just blow her cover. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  I don't think she has ever teamed up with anyone before me, right? It was pretty terrible at first. She even used to beat me up just because she thought I was annoying. Don't you think that's cruel? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Her Arts are really something else. I took a single blow and it knocked me out of my senses so terribly that I didn't even know how to get home. It took me a while until I remembered who I was!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  It affected your consciousness... and memories? I didn't know Arts could be so dangerous. 
 </t>
   </si>
   <si>
@@ -2136,11 +2136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Uh, yeah, it’s not something we talk about often. It’s technically classified information, so don’t tell anyone else, okay? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Anyway, you should try to be more casual. We all get along with each other here. If there’s anything you don’t understand, come find me. I’ll be happy to help you.
+    <t xml:space="preserve">[name="Elysium"]  Uh, yeah, it's not something we talk about often. It's technically classified information, so don't tell anyone else, okay? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Anyway, you should try to be more casual. We all get along with each other here. If there's anything you don't understand, come find me. I'll be happy to help you.
 </t>
   </si>
   <si>
@@ -2148,7 +2148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Thorns"]  You don’t need to force yourself, though. Just go on at your own pace. Anyone will be happy to help you should you run into any problems.
+    <t xml:space="preserve">[name="Thorns"]  You don't need to force yourself, though. Just go on at your own pace. Anyone will be happy to help you should you run into any problems.
 </t>
   </si>
   <si>
@@ -2156,11 +2156,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  Yep, that’s right. Don’t push yourself too hard! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Purestream"]  Oh, perfect! Sinthe, why don’t you come to our party? You two as well, Mr. Elysium, Mr. Thorns. I’ll be making lots of food from back home! 
+    <t xml:space="preserve">[name="Purestream"]  Yep, that's right. Don't push yourself too hard! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Purestream"]  Oh, perfect! Sinthe, why don't you come to our party? You two as well, Mr. Elysium, Mr. Thorns. I'll be making lots of food from back home! 
 </t>
   </si>
   <si>
@@ -2172,7 +2172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Purestream"]  Hehe, and do look forward to it. I promise you won’t be disappointed~!
+    <t xml:space="preserve">[name="Purestream"]  Hehe, and do look forward to it. I promise you won't be disappointed~!
 </t>
   </si>
   <si>
@@ -2184,15 +2184,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Well... my situation isn’t quite like yours.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  I really don’t have much to say about that place. It was a simple and boring place to me, and that really is it for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Besides, I couldn’t possibly have gone into the details. One of them is still a child.
+    <t xml:space="preserve">[name="Elysium"]  Well... my situation isn't quite like yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  I really don't have much to say about that place. It was a simple and boring place to me, and that really is it for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Besides, I couldn't possibly have gone into the details. One of them is still a child.
 </t>
   </si>
   <si>
@@ -2200,19 +2200,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Don’t tell me you’ve forgotten.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  The girl is still a student, and she’s in a pretty cheerful mood because of the festival coming up. Let’s not dampen her spirits.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Home... huh? I wonder what it’s like now. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  I wonder if it’s still packed with buildings, and the wind is still so humid, with that salty scent to it? Are the streets there still empty, and everyone there’s as quiet as they’ve always been? 
+    <t xml:space="preserve">[name="Elysium"]  Don't tell me you've forgotten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  The girl is still a student, and she's in a pretty cheerful mood because of the festival coming up. Let's not dampen her spirits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Home... huh? I wonder what it's like now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  I wonder if it's still packed with buildings, and the wind is still so humid, with that salty scent to it? Are the streets there still empty, and everyone there's as quiet as they've always been? 
 </t>
   </si>
   <si>
@@ -2220,19 +2220,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Haha, you’re right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Tell me, brother, do you think we’ll ever have a chance to go back, having run away from that place?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  I don’t think I want to go back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  But I can’t help but think that, perhaps one day... I’ll go back.
+    <t xml:space="preserve">[name="Elysium"]  Haha, you're right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Tell me, brother, do you think we'll ever have a chance to go back, having run away from that place?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  I don't think I want to go back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  But I can't help but think that, perhaps one day... I'll go back.
 </t>
   </si>
   <si>
